--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07BD03-0221-4378-8097-F0C857C1AD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1E49A-DD6E-4BDF-96D3-26C2834A60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -488,20 +488,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（優先順位低め）</t>
-    <rPh sb="1" eb="6">
-      <t>ユウセンジュンイヒク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（優先順位低め、）</t>
-    <rPh sb="1" eb="6">
-      <t>ユウセンジュンイヒク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示方法</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジホウホウ</t>
@@ -523,6 +509,130 @@
   </si>
   <si>
     <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（使用する画像によってはいらない ）</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーは必ずどこかの部屋にスポーンします</t>
+    <rPh sb="6" eb="7">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通路にはスポーンしない</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層ごとのマップの違い</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1~20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21~40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>41~60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>61~80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>81~100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>洞窟</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>地下水洞窟</t>
+    <rPh sb="0" eb="3">
+      <t>チカスイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>繁茂した洞窟</t>
+    <rPh sb="0" eb="2">
+      <t>ハンモ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウクツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遺跡</t>
+    <rPh sb="0" eb="2">
+      <t>イセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>違いは、壁と床、敵この３つを変える</t>
+    <rPh sb="0" eb="1">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -648,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4579620" y="4069080"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4596765" y="4069080"/>
+          <a:ext cx="407670" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -1130,8 +1243,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5295900" y="8069580"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="5320665" y="8069580"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -1870,8 +1983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4808220" y="11216640"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4827270" y="11216640"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2435,8 +2548,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4831080" y="13959840"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4850130" y="13959840"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2847,8 +2960,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4632960" y="17442180"/>
-          <a:ext cx="228600" cy="396240"/>
+          <a:off x="4650105" y="17442180"/>
+          <a:ext cx="230505" cy="396240"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3459,8 +3572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4724400" y="20177760"/>
-          <a:ext cx="1371600" cy="1457597"/>
+          <a:off x="4743450" y="20177760"/>
+          <a:ext cx="1386840" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -3726,8 +3839,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7399020" y="20208240"/>
-          <a:ext cx="1371600" cy="1457597"/>
+          <a:off x="7448550" y="20208240"/>
+          <a:ext cx="1388745" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -4833,8 +4946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5242560" y="21054060"/>
-          <a:ext cx="137160" cy="289560"/>
+          <a:off x="5267325" y="21054060"/>
+          <a:ext cx="139065" cy="289560"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -4940,6 +5053,127 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BE7378-5889-44F0-9D65-61D7A95F3214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4091940" y="21122640"/>
+          <a:ext cx="426720" cy="186690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>52390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>98108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4DC8C3-F9D4-4BE7-A888-A4AAF7FCABAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="5712145" y="20667347"/>
+          <a:ext cx="807718" cy="116203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>137</xdr:row>
@@ -5002,64 +5236,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BE7378-5889-44F0-9D65-61D7A95F3214}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="76" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4091940" y="21122640"/>
-          <a:ext cx="426720" cy="186690"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5368,21 +5544,21 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.296875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="5.3125" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="11.8125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5404,19 +5580,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="P146" sqref="P146"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5427,51 +5601,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="11"/>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
@@ -5484,7 +5658,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -5495,147 +5669,230 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I102" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H121" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H123" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="13"/>
       <c r="C125" s="14"/>
       <c r="E125" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F139" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F127" t="s">
-        <v>40</v>
+    <row r="144" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F144" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="139" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F139" t="s">
-        <v>41</v>
+    <row r="145" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="E147" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" t="s">
+        <v>49</v>
+      </c>
+      <c r="M149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="J150" t="s">
+        <v>49</v>
+      </c>
+      <c r="M150" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" t="s">
+        <v>49</v>
+      </c>
+      <c r="M151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F152" t="s">
+        <v>47</v>
+      </c>
+      <c r="J152" t="s">
+        <v>49</v>
+      </c>
+      <c r="M152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F153" t="s">
+        <v>48</v>
+      </c>
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+      <c r="M153" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B157" s="16"/>
+      <c r="D157" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE1E49A-DD6E-4BDF-96D3-26C2834A60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57F97E-51CC-414C-9B61-C51479097D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="マップ全体仕様" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -632,6 +633,16 @@
     <t>以上</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>溶岩洞</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウガン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5582,7 +5593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M153" sqref="M153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -5870,7 +5883,7 @@
         <v>49</v>
       </c>
       <c r="M152" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -5901,4 +5914,41 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52E5AB-1D68-44FC-8C71-BBDD8A07C753}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="16"/>
+      <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57F97E-51CC-414C-9B61-C51479097D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF219F-40B1-4F49-A0E7-3238ABAE8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -455,40 +455,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>通路は上下ともに幅は２個固定で通路の長さに応じて数を増やします</t>
-    <rPh sb="0" eb="2">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示方法</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジホウホウ</t>
@@ -643,6 +609,161 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩にはHP（体力）の概念があります</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通路は上下ともに幅は１個固定（キャラが通れる個数）で通路の長さに応じて数を増やします</t>
+    <rPh sb="0" eb="2">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つるはしのステータスに応じて減少します</t>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算方法</t>
+    <rPh sb="0" eb="4">
+      <t>ケイサンホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A＝3×1.５ｎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定の階層から計算の値が変わります</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～30階層</t>
+    <rPh sb="4" eb="6">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>31階層以降</t>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A＝3×1.8ｎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aは岩の体力</t>
+    <rPh sb="2" eb="3">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｎは現在の階層数</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ全体仕様</t>
+    <rPh sb="3" eb="7">
+      <t>ゼンタイシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -651,7 +772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +815,15 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -769,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +951,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -844,13 +980,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3561,13 +3697,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3583,7 +3719,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4743450" y="20177760"/>
+          <a:off x="4743450" y="22920960"/>
           <a:ext cx="1386840" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
@@ -3762,13 +3898,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3828,13 +3964,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>25037</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3850,7 +3986,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7448550" y="20208240"/>
+          <a:off x="7448550" y="22951440"/>
           <a:ext cx="1388745" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
@@ -4029,13 +4165,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4095,13 +4231,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>13286</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4170,13 +4306,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>97106</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>82025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4248,13 +4384,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>59006</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>66785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4326,13 +4462,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>112346</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>43925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4404,13 +4540,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>129542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>125729</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4467,13 +4603,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4530,13 +4666,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>53342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>49529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4593,13 +4729,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>99062</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>83822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>22864</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4656,13 +4792,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>68581</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>22859</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4719,13 +4855,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>137161</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4782,13 +4918,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>142826</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>13445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>59164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4860,13 +4996,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>119966</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4935,13 +5071,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4957,7 +5093,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5267325" y="21054060"/>
+          <a:off x="5267325" y="23797260"/>
           <a:ext cx="139065" cy="289560"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
@@ -5066,13 +5202,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5124,13 +5260,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>52390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>98108</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5187,13 +5323,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5549,17 +5685,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2D295A-9295-46AC-88E4-F7ADF9D99499}">
-  <dimension ref="B1:H4"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.3125" customWidth="1"/>
+    <col min="5" max="5" width="12.1875" customWidth="1"/>
     <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" customWidth="1"/>
+    <col min="7" max="7" width="14.3125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5581,6 +5717,20 @@
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E5" s="17">
+        <v>46056</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5591,11 +5741,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M153" sqref="M153"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
@@ -5717,7 +5865,7 @@
         <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -5740,7 +5888,7 @@
         <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
@@ -5798,114 +5946,167 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H121" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A125" s="17"/>
+      <c r="H125" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J129" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="J131" s="18"/>
+      <c r="K131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K135" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L137" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="L140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="E143" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="2:8" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B125" s="13"/>
-      <c r="C125" s="14"/>
-      <c r="E125" s="12" t="s">
+    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F145" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F127" t="s">
+    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F157" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F139" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F144" t="s">
+    <row r="162" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G163" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G145" t="s">
+    <row r="165" spans="2:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="E165" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="2:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B147" s="13"/>
-      <c r="C147" s="14"/>
-      <c r="E147" s="12" t="s">
+    <row r="167" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F167" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="149" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F149" t="s">
+      <c r="J167" t="s">
+        <v>48</v>
+      </c>
+      <c r="M167" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F168" t="s">
         <v>44</v>
       </c>
-      <c r="J149" t="s">
-        <v>49</v>
-      </c>
-      <c r="M149" t="s">
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="M168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F169" t="s">
+        <v>45</v>
+      </c>
+      <c r="J169" t="s">
+        <v>48</v>
+      </c>
+      <c r="M169" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F150" t="s">
-        <v>45</v>
-      </c>
-      <c r="J150" t="s">
-        <v>49</v>
-      </c>
-      <c r="M150" t="s">
+    <row r="170" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F170" t="s">
+        <v>46</v>
+      </c>
+      <c r="J170" t="s">
+        <v>48</v>
+      </c>
+      <c r="M170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F171" t="s">
+        <v>47</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
+      <c r="M171" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F151" t="s">
-        <v>46</v>
-      </c>
-      <c r="J151" t="s">
-        <v>49</v>
-      </c>
-      <c r="M151" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F152" t="s">
-        <v>47</v>
-      </c>
-      <c r="J152" t="s">
-        <v>49</v>
-      </c>
-      <c r="M152" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F153" t="s">
-        <v>48</v>
-      </c>
-      <c r="J153" t="s">
-        <v>49</v>
-      </c>
-      <c r="M153" t="s">
+    <row r="173" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G173" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G155" t="s">
+    <row r="175" spans="2:13" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B175" s="16"/>
+      <c r="D175" s="9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B157" s="16"/>
-      <c r="D157" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5944,7 +6145,7 @@
     <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="16"/>
       <c r="D4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF219F-40B1-4F49-A0E7-3238ABAE8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC69AD5-DBAA-49CF-A25E-F92EF0554298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -764,6 +764,19 @@
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>101階層からはまた洞窟から順にループしていく</t>
+    <rPh sb="3" eb="5">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1132,8 +1145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4596765" y="4069080"/>
-          <a:ext cx="407670" cy="845820"/>
+          <a:off x="4579620" y="4069080"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -1390,8 +1403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5320665" y="8069580"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="5295900" y="8069580"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2130,8 +2143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4827270" y="11216640"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="4808220" y="11216640"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2597,15 +2610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2620,7 +2633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4030980" y="14881860"/>
+          <a:off x="4046220" y="14912340"/>
           <a:ext cx="2667000" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2695,8 +2708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4850130" y="13959840"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="4831080" y="13959840"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2802,16 +2815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2826,8 +2839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5836920" y="14881860"/>
-          <a:ext cx="693420" cy="266700"/>
+          <a:off x="5943600" y="14638020"/>
+          <a:ext cx="533400" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3107,8 +3120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4650105" y="17442180"/>
-          <a:ext cx="230505" cy="396240"/>
+          <a:off x="4632960" y="17442180"/>
+          <a:ext cx="228600" cy="396240"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3719,8 +3732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4743450" y="22920960"/>
-          <a:ext cx="1386840" cy="1457597"/>
+          <a:off x="4724400" y="22920960"/>
+          <a:ext cx="1371600" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -3986,8 +3999,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7448550" y="22951440"/>
-          <a:ext cx="1388745" cy="1457597"/>
+          <a:off x="7399020" y="22951440"/>
+          <a:ext cx="1371600" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -5093,8 +5106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5267325" y="23797260"/>
-          <a:ext cx="139065" cy="289560"/>
+          <a:off x="5242560" y="23797260"/>
+          <a:ext cx="137160" cy="289560"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -5691,21 +5704,21 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="12.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="14.3125" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5719,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="17">
         <v>46056</v>
       </c>
@@ -5741,17 +5754,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
-  <dimension ref="A1:P175"/>
+  <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="X174" sqref="X174"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5762,51 +5777,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
@@ -5819,7 +5834,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -5830,37 +5845,37 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
         <v>16</v>
       </c>
@@ -5868,22 +5883,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>19</v>
       </c>
@@ -5891,83 +5906,83 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I102" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H121" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H123" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="17"/>
       <c r="H125" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I127" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J129" s="18" t="s">
         <v>59</v>
       </c>
@@ -5975,75 +5990,75 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J131" s="18"/>
       <c r="K131" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L133" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K135" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L137" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L139" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="13"/>
       <c r="C143" s="14"/>
       <c r="E143" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F145" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F157" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F162" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G163" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:24" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="13"/>
       <c r="C165" s="14"/>
       <c r="E165" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F167" t="s">
         <v>43</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
         <v>44</v>
       </c>
@@ -6065,7 +6080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F169" t="s">
         <v>45</v>
       </c>
@@ -6076,7 +6091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F170" t="s">
         <v>46</v>
       </c>
@@ -6087,7 +6102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F171" t="s">
         <v>47</v>
       </c>
@@ -6098,12 +6113,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G173" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="175" spans="2:13" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X173" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="16"/>
       <c r="D175" s="9" t="s">
         <v>54</v>
@@ -6125,13 +6143,13 @@
       <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6142,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="D4" s="9" t="s">
         <v>54</v>

--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC69AD5-DBAA-49CF-A25E-F92EF0554298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BCC44-6E49-4D59-BF6D-5696625E50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="1425" yWindow="2325" windowWidth="16200" windowHeight="9308" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="マップ全体仕様" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1145,8 +1144,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4579620" y="4069080"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4596765" y="4069080"/>
+          <a:ext cx="407670" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -1403,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5295900" y="8069580"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="5320665" y="8069580"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2143,8 +2142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4808220" y="11216640"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4827270" y="11216640"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2708,8 +2707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4831080" y="13959840"/>
-          <a:ext cx="403860" cy="845820"/>
+          <a:off x="4850130" y="13959840"/>
+          <a:ext cx="409575" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3120,8 +3119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4632960" y="17442180"/>
-          <a:ext cx="228600" cy="396240"/>
+          <a:off x="4650105" y="17442180"/>
+          <a:ext cx="230505" cy="396240"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3732,8 +3731,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4724400" y="22920960"/>
-          <a:ext cx="1371600" cy="1457597"/>
+          <a:off x="4743450" y="22920960"/>
+          <a:ext cx="1386840" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -3999,8 +3998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7399020" y="22951440"/>
-          <a:ext cx="1371600" cy="1457597"/>
+          <a:off x="7448550" y="22951440"/>
+          <a:ext cx="1388745" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -5106,8 +5105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5242560" y="23797260"/>
-          <a:ext cx="137160" cy="289560"/>
+          <a:off x="5267325" y="23797260"/>
+          <a:ext cx="139065" cy="289560"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -5704,21 +5703,21 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.1875" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" customWidth="1"/>
+    <col min="7" max="7" width="14.3125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" s="17">
         <v>46056</v>
       </c>
@@ -5756,17 +5755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="X174" sqref="X174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5777,51 +5776,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="11"/>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
@@ -5834,7 +5833,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -5845,37 +5844,37 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F47" t="s">
         <v>16</v>
       </c>
@@ -5883,22 +5882,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F65" t="s">
         <v>19</v>
       </c>
@@ -5906,83 +5905,83 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I102" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H121" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H123" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A125" s="17"/>
       <c r="H125" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I127" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J129" s="18" t="s">
         <v>59</v>
       </c>
@@ -5990,75 +5989,75 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="J131" s="18"/>
       <c r="K131" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L133" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="K135" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L137" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L139" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="13"/>
       <c r="C143" s="14"/>
       <c r="E143" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F145" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F157" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F162" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G163" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="2:24" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:24" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="13"/>
       <c r="C165" s="14"/>
       <c r="E165" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F167" t="s">
         <v>43</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F168" t="s">
         <v>44</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F169" t="s">
         <v>45</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F170" t="s">
         <v>46</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F171" t="s">
         <v>47</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G173" t="s">
         <v>53</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="2:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B175" s="16"/>
       <c r="D175" s="9" t="s">
         <v>54</v>
@@ -6133,41 +6132,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52E5AB-1D68-44FC-8C71-BBDD8A07C753}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="20" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="16"/>
-      <c r="D4" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/200_DUYDマップ仕様.xlsx
+++ b/Document/200_DUYDマップ仕様.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BCC44-6E49-4D59-BF6D-5696625E50F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC69AD5-DBAA-49CF-A25E-F92EF0554298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2325" windowWidth="16200" windowHeight="9308" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
     <sheet name="マップ全体仕様" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -1144,8 +1145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4596765" y="4069080"/>
-          <a:ext cx="407670" cy="845820"/>
+          <a:off x="4579620" y="4069080"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -1402,8 +1403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5320665" y="8069580"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="5295900" y="8069580"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2142,8 +2143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4827270" y="11216640"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="4808220" y="11216640"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -2707,8 +2708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4850130" y="13959840"/>
-          <a:ext cx="409575" cy="845820"/>
+          <a:off x="4831080" y="13959840"/>
+          <a:ext cx="403860" cy="845820"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3119,8 +3120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4650105" y="17442180"/>
-          <a:ext cx="230505" cy="396240"/>
+          <a:off x="4632960" y="17442180"/>
+          <a:ext cx="228600" cy="396240"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -3731,8 +3732,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4743450" y="22920960"/>
-          <a:ext cx="1386840" cy="1457597"/>
+          <a:off x="4724400" y="22920960"/>
+          <a:ext cx="1371600" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -3998,8 +3999,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7448550" y="22951440"/>
-          <a:ext cx="1388745" cy="1457597"/>
+          <a:off x="7399020" y="22951440"/>
+          <a:ext cx="1371600" cy="1457597"/>
           <a:chOff x="4724400" y="20177760"/>
           <a:chExt cx="1371600" cy="1457597"/>
         </a:xfrm>
@@ -5105,8 +5106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5267325" y="23797260"/>
-          <a:ext cx="139065" cy="289560"/>
+          <a:off x="5242560" y="23797260"/>
+          <a:ext cx="137160" cy="289560"/>
           <a:chOff x="4945380" y="4030980"/>
           <a:chExt cx="403860" cy="845820"/>
         </a:xfrm>
@@ -5703,21 +5704,21 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="12.1875" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" customWidth="1"/>
-    <col min="7" max="7" width="14.3125" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
       <c r="B1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" s="17">
         <v>46056</v>
       </c>
@@ -5755,17 +5756,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD89370-1DE1-4DF5-942C-CF8F59DF7864}">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="X174" sqref="X174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5776,51 +5777,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11"/>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="11"/>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E19" s="15" t="s">
         <v>14</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -5844,37 +5845,37 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="5:13" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
         <v>16</v>
       </c>
@@ -5882,22 +5883,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="7:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>19</v>
       </c>
@@ -5905,83 +5906,83 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="6:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H89" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I102" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="6:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H108" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H121" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H123" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="17"/>
       <c r="H125" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I127" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J129" s="18" t="s">
         <v>59</v>
       </c>
@@ -5989,75 +5990,75 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J131" s="18"/>
       <c r="K131" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L133" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K135" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L137" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L139" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L140" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:16" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="13"/>
       <c r="C143" s="14"/>
       <c r="E143" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F145" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="6:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F157" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F162" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G163" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="2:24" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:24" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="13"/>
       <c r="C165" s="14"/>
       <c r="E165" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F167" t="s">
         <v>43</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
         <v>44</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F169" t="s">
         <v>45</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F170" t="s">
         <v>46</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F171" t="s">
         <v>47</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="173" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G173" t="s">
         <v>53</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="2:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="175" spans="2:24" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="16"/>
       <c r="D175" s="9" t="s">
         <v>54</v>
@@ -6132,4 +6133,41 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52E5AB-1D68-44FC-8C71-BBDD8A07C753}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="16"/>
+      <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>